--- a/data/latMat/verseorder.xlsx
+++ b/data/latMat/verseorder.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraus0001\PycharmProjects\oldnorse2graph\latMat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraus0001\PycharmProjects\pamphilus_db\data\latMat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="19200" windowHeight="6435"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="19200" windowHeight="6440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Base</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>296b</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>627a</t>
+  </si>
+  <si>
+    <t>680a</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>692</t>
   </si>
 </sst>
 </file>
@@ -366,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E500"/>
+  <dimension ref="A1:E771"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:E500"/>
+    <sheetView tabSelected="1" topLeftCell="A679" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C697" sqref="C697"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,7 +409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -408,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -425,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -442,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -459,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -476,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -493,7 +511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -510,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -527,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -544,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -561,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -578,7 +596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -595,7 +613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -612,7 +630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -629,7 +647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -646,7 +664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -663,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -680,7 +698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -697,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -714,7 +732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -731,7 +749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -748,7 +766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -765,7 +783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -782,7 +800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -799,7 +817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -816,7 +834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -833,7 +851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -850,7 +868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -867,7 +885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -884,7 +902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -901,7 +919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -918,7 +936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -935,7 +953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -952,7 +970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -969,7 +987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1003,7 +1021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1020,7 +1038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1037,7 +1055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1054,7 +1072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1088,7 +1106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1105,7 +1123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1122,7 +1140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1139,7 +1157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1156,7 +1174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1173,7 +1191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1207,7 +1225,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1241,7 +1259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1258,7 +1276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1275,7 +1293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1292,7 +1310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1309,7 +1327,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1343,7 +1361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1360,7 +1378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1377,7 +1395,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1394,7 +1412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1411,7 +1429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1445,7 +1463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1479,7 +1497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1496,7 +1514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1513,7 +1531,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1530,7 +1548,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1547,7 +1565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1564,7 +1582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1581,7 +1599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1598,7 +1616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1649,7 +1667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1666,7 +1684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1683,7 +1701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1700,7 +1718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1717,7 +1735,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1734,7 +1752,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1751,7 +1769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1768,7 +1786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1785,7 +1803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1802,7 +1820,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1819,7 +1837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1836,7 +1854,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1853,7 +1871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1870,7 +1888,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1887,7 +1905,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1904,7 +1922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1921,7 +1939,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1938,7 +1956,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1972,7 +1990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1989,7 +2007,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2023,7 +2041,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2040,7 +2058,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2074,7 +2092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2091,7 +2109,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2108,7 +2126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2125,7 +2143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2142,7 +2160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2159,7 +2177,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2176,7 +2194,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2193,7 +2211,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2210,7 +2228,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2227,7 +2245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -2244,7 +2262,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -2261,7 +2279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2278,7 +2296,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -2295,7 +2313,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -2329,7 +2347,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -2346,7 +2364,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -2363,7 +2381,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -2380,7 +2398,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -2414,7 +2432,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -2431,7 +2449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -2465,7 +2483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -2482,7 +2500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -2499,7 +2517,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -2516,7 +2534,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -2533,7 +2551,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -2550,7 +2568,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -2567,7 +2585,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -2584,7 +2602,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -2601,7 +2619,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -2618,7 +2636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -2635,7 +2653,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -2652,7 +2670,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -2669,7 +2687,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -2686,7 +2704,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -2703,7 +2721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -2720,7 +2738,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -2737,7 +2755,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -2754,7 +2772,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -2771,7 +2789,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -2805,7 +2823,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -2822,7 +2840,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -2839,7 +2857,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -2856,7 +2874,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -2873,7 +2891,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -2890,7 +2908,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -2907,7 +2925,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -2924,7 +2942,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -2941,7 +2959,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -2958,7 +2976,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -2992,7 +3010,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -3009,7 +3027,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -3026,7 +3044,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -3043,7 +3061,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -3060,7 +3078,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -3077,7 +3095,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -3094,7 +3112,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -3128,7 +3146,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -3145,7 +3163,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -3162,7 +3180,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -3179,7 +3197,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -3196,7 +3214,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -3213,7 +3231,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -3230,7 +3248,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -3247,7 +3265,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -3264,7 +3282,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -3281,7 +3299,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -3298,7 +3316,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -3315,7 +3333,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -3332,7 +3350,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -3366,7 +3384,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -3383,7 +3401,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -3400,7 +3418,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -3417,7 +3435,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -3434,7 +3452,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -3451,7 +3469,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -3468,7 +3486,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -3485,7 +3503,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -3502,7 +3520,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -3519,7 +3537,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -3536,7 +3554,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -3553,7 +3571,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -3587,7 +3605,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -3604,7 +3622,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -3621,7 +3639,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -3638,7 +3656,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -3655,7 +3673,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -3672,7 +3690,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -3689,7 +3707,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -3706,7 +3724,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -3723,7 +3741,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -3740,7 +3758,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -3757,7 +3775,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -3774,7 +3792,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -3791,7 +3809,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -3808,7 +3826,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -3825,7 +3843,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -3842,7 +3860,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -3859,7 +3877,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -3876,7 +3894,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -3893,7 +3911,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -3910,7 +3928,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -3927,7 +3945,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -3944,7 +3962,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -3961,7 +3979,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -3978,7 +3996,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -3995,7 +4013,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4012,7 +4030,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4029,7 +4047,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4046,7 +4064,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4063,7 +4081,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4080,7 +4098,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4097,7 +4115,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4114,7 +4132,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4131,7 +4149,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4148,7 +4166,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4165,7 +4183,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4182,7 +4200,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4199,7 +4217,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4216,7 +4234,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -4233,7 +4251,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -4250,7 +4268,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -4267,7 +4285,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -4284,7 +4302,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -4301,7 +4319,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -4318,7 +4336,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -4335,7 +4353,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -4369,7 +4387,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -4386,7 +4404,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -4403,7 +4421,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -4420,7 +4438,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -4437,7 +4455,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -4454,7 +4472,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -4471,7 +4489,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -4488,7 +4506,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -4505,7 +4523,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -4522,7 +4540,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -4539,7 +4557,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -4556,7 +4574,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -4573,7 +4591,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -4590,7 +4608,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -4607,7 +4625,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -4624,7 +4642,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -4641,7 +4659,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -4658,7 +4676,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -4675,7 +4693,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -4692,7 +4710,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -4709,7 +4727,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -4726,7 +4744,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -4743,7 +4761,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -4760,7 +4778,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -4777,7 +4795,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -4794,7 +4812,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -4811,7 +4829,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -4828,7 +4846,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -4845,7 +4863,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -4862,7 +4880,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -4879,7 +4897,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -4896,7 +4914,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -4913,7 +4931,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -4930,7 +4948,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -4947,7 +4965,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -4964,7 +4982,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -4981,7 +4999,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -4998,7 +5016,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5015,7 +5033,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5032,7 +5050,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -5049,7 +5067,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -5066,7 +5084,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5083,7 +5101,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -5100,7 +5118,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -5117,7 +5135,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -5134,7 +5152,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -5151,7 +5169,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -5168,7 +5186,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -5185,7 +5203,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -5219,7 +5237,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -5236,7 +5254,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -5253,7 +5271,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5270,7 +5288,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -5287,7 +5305,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -5304,7 +5322,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -5321,7 +5339,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -5338,7 +5356,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -5355,7 +5373,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -5372,7 +5390,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -5389,7 +5407,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -5406,7 +5424,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -5423,7 +5441,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -5440,7 +5458,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -5457,7 +5475,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -5474,7 +5492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -5491,7 +5509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -5508,7 +5526,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -5525,7 +5543,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -5542,7 +5560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -5559,7 +5577,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -5576,7 +5594,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -5593,7 +5611,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -5610,7 +5628,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -5627,7 +5645,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -5644,7 +5662,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -5661,7 +5679,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -5678,7 +5696,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -5695,7 +5713,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -5712,7 +5730,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -5729,7 +5747,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -5746,7 +5764,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -5763,7 +5781,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -5780,7 +5798,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -5797,7 +5815,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -5814,7 +5832,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -5831,7 +5849,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -5848,7 +5866,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -5865,7 +5883,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -5882,7 +5900,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -5899,7 +5917,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -5933,7 +5951,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -5950,7 +5968,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -5967,7 +5985,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -5984,7 +6002,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -6001,7 +6019,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -6018,7 +6036,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -6035,7 +6053,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -6052,7 +6070,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -6069,7 +6087,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -6086,7 +6104,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -6103,7 +6121,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -6120,7 +6138,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -6137,7 +6155,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -6154,7 +6172,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -6171,7 +6189,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -6188,7 +6206,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -6205,7 +6223,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -6222,7 +6240,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -6239,7 +6257,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -6256,7 +6274,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -6273,7 +6291,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -6290,7 +6308,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -6324,7 +6342,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -6341,7 +6359,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -6358,7 +6376,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -6375,7 +6393,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -6392,7 +6410,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -6409,7 +6427,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -6426,7 +6444,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -6443,7 +6461,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -6460,7 +6478,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -6477,7 +6495,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -6494,7 +6512,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -6511,7 +6529,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -6528,7 +6546,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -6545,7 +6563,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -6562,7 +6580,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -6579,7 +6597,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -6596,7 +6614,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -6613,7 +6631,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -6630,7 +6648,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -6647,7 +6665,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -6664,7 +6682,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -6681,7 +6699,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -6698,7 +6716,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -6715,7 +6733,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -6732,7 +6750,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -6749,7 +6767,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -6766,7 +6784,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -6783,7 +6801,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -6800,7 +6818,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -6817,7 +6835,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -6834,7 +6852,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -6851,7 +6869,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -6868,7 +6886,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -6885,7 +6903,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -6902,7 +6920,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -6919,7 +6937,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -6936,7 +6954,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -6953,7 +6971,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -6970,7 +6988,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -6987,7 +7005,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -7004,7 +7022,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -7021,7 +7039,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -7038,7 +7056,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -7055,7 +7073,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -7072,7 +7090,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -7089,7 +7107,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -7106,7 +7124,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -7123,7 +7141,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -7140,7 +7158,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -7157,7 +7175,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -7174,7 +7192,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -7191,7 +7209,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -7208,7 +7226,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -7225,7 +7243,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -7242,7 +7260,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -7259,7 +7277,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -7276,7 +7294,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -7293,7 +7311,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -7310,7 +7328,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -7327,7 +7345,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -7344,7 +7362,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -7361,7 +7379,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -7378,7 +7396,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -7395,7 +7413,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -7412,7 +7430,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -7429,7 +7447,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -7446,7 +7464,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -7463,7 +7481,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -7480,7 +7498,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -7497,7 +7515,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -7514,7 +7532,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -7531,7 +7549,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -7548,7 +7566,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -7565,7 +7583,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -7582,7 +7600,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -7599,7 +7617,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -7616,7 +7634,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -7633,7 +7651,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -7650,7 +7668,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -7667,7 +7685,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -7684,7 +7702,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -7701,7 +7719,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -7718,7 +7736,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -7735,7 +7753,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -7752,7 +7770,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -7769,7 +7787,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -7786,7 +7804,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -7803,7 +7821,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -7820,7 +7838,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -7837,7 +7855,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -7854,7 +7872,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -7888,7 +7906,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -7905,7 +7923,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -7922,7 +7940,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -7939,7 +7957,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -7956,7 +7974,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -7973,7 +7991,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -7990,7 +8008,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -8007,7 +8025,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -8024,7 +8042,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -8041,7 +8059,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -8058,7 +8076,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -8075,7 +8093,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -8092,7 +8110,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -8109,7 +8127,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -8126,7 +8144,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -8143,7 +8161,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -8160,7 +8178,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -8177,7 +8195,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -8194,7 +8212,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -8211,7 +8229,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -8228,7 +8246,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -8245,7 +8263,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -8262,7 +8280,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -8279,7 +8297,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -8296,7 +8314,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -8313,7 +8331,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -8330,7 +8348,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -8347,7 +8365,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -8364,7 +8382,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -8381,7 +8399,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -8398,7 +8416,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -8415,7 +8433,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -8432,7 +8450,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -8449,7 +8467,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -8466,7 +8484,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -8483,7 +8501,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -8500,7 +8518,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -8517,7 +8535,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -8534,7 +8552,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -8551,7 +8569,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -8568,7 +8586,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -8585,7 +8603,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -8602,7 +8620,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -8619,7 +8637,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -8636,7 +8654,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -8653,7 +8671,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -8670,7 +8688,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -8687,7 +8705,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -8704,7 +8722,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -8721,7 +8739,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -8736,7 +8754,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -8751,12 +8769,14 @@
         <v>489</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="1"/>
-      <c r="C494" s="1"/>
+      <c r="C494" s="1">
+        <v>493</v>
+      </c>
       <c r="D494" s="1">
         <v>492</v>
       </c>
@@ -8764,63 +8784,2581 @@
         <v>490</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="1"/>
-      <c r="C495" s="1"/>
+      <c r="C495" s="1">
+        <v>494</v>
+      </c>
       <c r="D495" s="1"/>
       <c r="E495" s="1">
         <v>491</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="1"/>
-      <c r="C496" s="1"/>
+      <c r="C496" s="1">
+        <v>495</v>
+      </c>
       <c r="D496" s="1"/>
       <c r="E496" s="1">
         <v>492</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="1"/>
-      <c r="C497" s="1"/>
+      <c r="C497" s="1">
+        <v>496</v>
+      </c>
       <c r="D497" s="1"/>
-      <c r="E497" s="1"/>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E497" s="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="1"/>
-      <c r="C498" s="1"/>
+      <c r="C498" s="1">
+        <v>497</v>
+      </c>
       <c r="D498" s="1"/>
-      <c r="E498" s="1"/>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E498" s="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="1"/>
-      <c r="C499" s="1"/>
+      <c r="C499" s="1">
+        <v>498</v>
+      </c>
       <c r="D499" s="1"/>
-      <c r="E499" s="1"/>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E499" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="1"/>
-      <c r="C500" s="1"/>
+      <c r="C500" s="1">
+        <v>499</v>
+      </c>
       <c r="D500" s="1"/>
-      <c r="E500" s="1"/>
+      <c r="E500" s="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A501" s="1">
+        <v>500</v>
+      </c>
+      <c r="C501" s="1">
+        <v>500</v>
+      </c>
+      <c r="E501" s="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A502" s="1">
+        <v>501</v>
+      </c>
+      <c r="C502" s="1">
+        <v>501</v>
+      </c>
+      <c r="E502" s="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A503" s="1">
+        <v>502</v>
+      </c>
+      <c r="C503" s="1">
+        <v>502</v>
+      </c>
+      <c r="E503" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A504" s="1">
+        <v>503</v>
+      </c>
+      <c r="C504" s="1">
+        <v>503</v>
+      </c>
+      <c r="E504" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A505" s="1">
+        <v>504</v>
+      </c>
+      <c r="C505" s="1">
+        <v>504</v>
+      </c>
+      <c r="E505" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A506" s="1">
+        <v>505</v>
+      </c>
+      <c r="C506" s="1">
+        <v>505</v>
+      </c>
+      <c r="E506" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A507" s="1">
+        <v>506</v>
+      </c>
+      <c r="C507" s="1">
+        <v>506</v>
+      </c>
+      <c r="E507" s="1">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A508" s="1">
+        <v>507</v>
+      </c>
+      <c r="C508" s="1">
+        <v>507</v>
+      </c>
+      <c r="E508" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A509" s="1">
+        <v>508</v>
+      </c>
+      <c r="C509" s="1">
+        <v>508</v>
+      </c>
+      <c r="E509" s="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A510" s="1">
+        <v>509</v>
+      </c>
+      <c r="C510" s="1">
+        <v>509</v>
+      </c>
+      <c r="E510" s="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A511" s="1">
+        <v>510</v>
+      </c>
+      <c r="C511" s="1">
+        <v>510</v>
+      </c>
+      <c r="E511" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A512" s="1">
+        <v>511</v>
+      </c>
+      <c r="C512" s="1">
+        <v>511</v>
+      </c>
+      <c r="E512" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A513" s="1">
+        <v>512</v>
+      </c>
+      <c r="C513" s="1">
+        <v>512</v>
+      </c>
+      <c r="E513" s="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A514" s="1">
+        <v>513</v>
+      </c>
+      <c r="C514" s="1">
+        <v>513</v>
+      </c>
+      <c r="E514" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A515" s="1">
+        <v>514</v>
+      </c>
+      <c r="C515" s="1">
+        <v>514</v>
+      </c>
+      <c r="E515" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A516" s="1">
+        <v>515</v>
+      </c>
+      <c r="C516" s="1">
+        <v>515</v>
+      </c>
+      <c r="E516" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A517" s="1">
+        <v>516</v>
+      </c>
+      <c r="C517" s="1">
+        <v>516</v>
+      </c>
+      <c r="E517" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A518" s="1">
+        <v>517</v>
+      </c>
+      <c r="C518" s="1">
+        <v>517</v>
+      </c>
+      <c r="E518" s="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A519" s="1">
+        <v>518</v>
+      </c>
+      <c r="C519" s="1">
+        <v>518</v>
+      </c>
+      <c r="E519" s="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A520" s="1">
+        <v>519</v>
+      </c>
+      <c r="C520" s="1">
+        <v>519</v>
+      </c>
+      <c r="E520" s="1">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A521" s="1">
+        <v>520</v>
+      </c>
+      <c r="C521" s="1">
+        <v>520</v>
+      </c>
+      <c r="E521" s="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="C522" s="1">
+        <v>521</v>
+      </c>
+      <c r="E522" s="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A523" s="1">
+        <v>522</v>
+      </c>
+      <c r="C523" s="1">
+        <v>522</v>
+      </c>
+      <c r="E523" s="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="C524" s="1">
+        <v>523</v>
+      </c>
+      <c r="E524" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="C525" s="1">
+        <v>524</v>
+      </c>
+      <c r="E525" s="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="C526" s="1">
+        <v>525</v>
+      </c>
+      <c r="E526" s="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="C527" s="1">
+        <v>526</v>
+      </c>
+      <c r="E527" s="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="C528" s="1">
+        <v>527</v>
+      </c>
+      <c r="E528" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="C529" s="1">
+        <v>528</v>
+      </c>
+      <c r="E529" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="C530" s="1">
+        <v>529</v>
+      </c>
+      <c r="E530" s="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A531" s="1">
+        <v>530</v>
+      </c>
+      <c r="C531" s="1">
+        <v>530</v>
+      </c>
+      <c r="E531" s="1">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A532" s="1">
+        <v>531</v>
+      </c>
+      <c r="C532" s="1">
+        <v>531</v>
+      </c>
+      <c r="E532" s="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A533" s="1">
+        <v>532</v>
+      </c>
+      <c r="C533" s="1">
+        <v>532</v>
+      </c>
+      <c r="E533" s="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A534" s="1">
+        <v>533</v>
+      </c>
+      <c r="C534" s="1">
+        <v>533</v>
+      </c>
+      <c r="E534" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A535" s="1">
+        <v>534</v>
+      </c>
+      <c r="C535" s="1">
+        <v>534</v>
+      </c>
+      <c r="E535" s="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="C536" s="1">
+        <v>535</v>
+      </c>
+      <c r="E536" s="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A537" s="1">
+        <v>536</v>
+      </c>
+      <c r="C537" s="1">
+        <v>536</v>
+      </c>
+      <c r="E537" s="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="C538" s="1">
+        <v>537</v>
+      </c>
+      <c r="E538" s="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A539" s="1">
+        <v>538</v>
+      </c>
+      <c r="C539" s="1">
+        <v>538</v>
+      </c>
+      <c r="E539" s="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A540" s="1">
+        <v>539</v>
+      </c>
+      <c r="C540" s="1">
+        <v>539</v>
+      </c>
+      <c r="E540" s="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A541" s="1">
+        <v>540</v>
+      </c>
+      <c r="C541" s="1">
+        <v>540</v>
+      </c>
+      <c r="E541" s="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A542" s="1">
+        <v>541</v>
+      </c>
+      <c r="C542" s="1">
+        <v>541</v>
+      </c>
+      <c r="E542" s="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A543" s="1">
+        <v>542</v>
+      </c>
+      <c r="C543" s="1">
+        <v>542</v>
+      </c>
+      <c r="E543" s="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A544" s="1">
+        <v>543</v>
+      </c>
+      <c r="C544" s="1">
+        <v>543</v>
+      </c>
+      <c r="E544" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A545" s="1">
+        <v>544</v>
+      </c>
+      <c r="C545" s="1">
+        <v>544</v>
+      </c>
+      <c r="E545" s="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A546" s="1">
+        <v>545</v>
+      </c>
+      <c r="C546" s="1">
+        <v>545</v>
+      </c>
+      <c r="E546" s="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A547" s="1">
+        <v>546</v>
+      </c>
+      <c r="C547" s="1">
+        <v>546</v>
+      </c>
+      <c r="E547" s="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="C548" s="1">
+        <v>547</v>
+      </c>
+      <c r="E548" s="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A549" s="1">
+        <v>548</v>
+      </c>
+      <c r="C549" s="1">
+        <v>548</v>
+      </c>
+      <c r="E549" s="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A550" s="1">
+        <v>549</v>
+      </c>
+      <c r="C550" s="1">
+        <v>549</v>
+      </c>
+      <c r="E550" s="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A551" s="1">
+        <v>550</v>
+      </c>
+      <c r="C551" s="1">
+        <v>550</v>
+      </c>
+      <c r="E551" s="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A552" s="1">
+        <v>551</v>
+      </c>
+      <c r="C552" s="1">
+        <v>551</v>
+      </c>
+      <c r="E552" s="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A553" s="1">
+        <v>552</v>
+      </c>
+      <c r="C553" s="1">
+        <v>552</v>
+      </c>
+      <c r="E553" s="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A554" s="1">
+        <v>553</v>
+      </c>
+      <c r="C554" s="1">
+        <v>553</v>
+      </c>
+      <c r="E554" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A555" s="1">
+        <v>554</v>
+      </c>
+      <c r="C555" s="1">
+        <v>554</v>
+      </c>
+      <c r="E555" s="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A556" s="1">
+        <v>555</v>
+      </c>
+      <c r="C556" s="1">
+        <v>555</v>
+      </c>
+      <c r="E556" s="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A557" s="1">
+        <v>556</v>
+      </c>
+      <c r="C557" s="1">
+        <v>556</v>
+      </c>
+      <c r="E557" s="1">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A558" s="1">
+        <v>557</v>
+      </c>
+      <c r="C558" s="1">
+        <v>557</v>
+      </c>
+      <c r="E558" s="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A559" s="1">
+        <v>558</v>
+      </c>
+      <c r="C559" s="1">
+        <v>558</v>
+      </c>
+      <c r="E559" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A560" s="1">
+        <v>559</v>
+      </c>
+      <c r="C560" s="1">
+        <v>559</v>
+      </c>
+      <c r="E560" s="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A561" s="1">
+        <v>560</v>
+      </c>
+      <c r="C561" s="1">
+        <v>560</v>
+      </c>
+      <c r="E561" s="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A562" s="1">
+        <v>561</v>
+      </c>
+      <c r="C562" s="1">
+        <v>561</v>
+      </c>
+      <c r="E562" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A563" s="1">
+        <v>562</v>
+      </c>
+      <c r="C563" s="1">
+        <v>563</v>
+      </c>
+      <c r="E563" s="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A564" s="1">
+        <v>563</v>
+      </c>
+      <c r="C564" s="1">
+        <v>564</v>
+      </c>
+      <c r="E564" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A565" s="1">
+        <v>564</v>
+      </c>
+      <c r="C565" s="1">
+        <v>565</v>
+      </c>
+      <c r="E565" s="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A566" s="1">
+        <v>565</v>
+      </c>
+      <c r="C566" s="1">
+        <v>566</v>
+      </c>
+      <c r="E566" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A567" s="1">
+        <v>566</v>
+      </c>
+      <c r="C567" s="1">
+        <v>567</v>
+      </c>
+      <c r="E567" s="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A568" s="1">
+        <v>567</v>
+      </c>
+      <c r="C568" s="1">
+        <v>568</v>
+      </c>
+      <c r="E568" s="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A569" s="1">
+        <v>568</v>
+      </c>
+      <c r="C569" s="1">
+        <v>569</v>
+      </c>
+      <c r="E569" s="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A570" s="1">
+        <v>569</v>
+      </c>
+      <c r="C570" s="1">
+        <v>570</v>
+      </c>
+      <c r="E570" s="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A571" s="1">
+        <v>570</v>
+      </c>
+      <c r="C571" s="1">
+        <v>571</v>
+      </c>
+      <c r="E571" s="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A572" s="1">
+        <v>571</v>
+      </c>
+      <c r="C572" s="1">
+        <v>572</v>
+      </c>
+      <c r="E572" s="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A573" s="1">
+        <v>572</v>
+      </c>
+      <c r="C573" s="1">
+        <v>573</v>
+      </c>
+      <c r="E573" s="1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A574" s="1">
+        <v>573</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E574" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A575" s="1">
+        <v>574</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E575" s="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A576" s="1">
+        <v>575</v>
+      </c>
+      <c r="C576" s="1">
+        <v>576</v>
+      </c>
+      <c r="E576" s="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A577" s="1">
+        <v>576</v>
+      </c>
+      <c r="C577" s="1">
+        <v>577</v>
+      </c>
+      <c r="E577" s="1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A578" s="1">
+        <v>577</v>
+      </c>
+      <c r="C578" s="1">
+        <v>578</v>
+      </c>
+      <c r="E578" s="1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A579" s="1">
+        <v>578</v>
+      </c>
+      <c r="C579" s="1">
+        <v>579</v>
+      </c>
+      <c r="E579" s="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A580" s="1">
+        <v>579</v>
+      </c>
+      <c r="C580" s="1">
+        <v>580</v>
+      </c>
+      <c r="E580" s="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A581" s="1">
+        <v>580</v>
+      </c>
+      <c r="C581" s="1">
+        <v>581</v>
+      </c>
+      <c r="E581" s="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+      <c r="C582" s="1">
+        <v>582</v>
+      </c>
+      <c r="E582" s="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="C583" s="1">
+        <v>583</v>
+      </c>
+      <c r="E583" s="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="C584" s="1">
+        <v>584</v>
+      </c>
+      <c r="E584" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A585" s="1">
+        <v>584</v>
+      </c>
+      <c r="C585" s="1">
+        <v>585</v>
+      </c>
+      <c r="E585" s="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="C586" s="1">
+        <v>586</v>
+      </c>
+      <c r="E586" s="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A587" s="1">
+        <v>586</v>
+      </c>
+      <c r="C587" s="1">
+        <v>587</v>
+      </c>
+      <c r="E587" s="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A588" s="1">
+        <v>587</v>
+      </c>
+      <c r="C588" s="1">
+        <v>588</v>
+      </c>
+      <c r="E588" s="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A589" s="1">
+        <v>588</v>
+      </c>
+      <c r="C589" s="1">
+        <v>589</v>
+      </c>
+      <c r="E589" s="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A590" s="1">
+        <v>589</v>
+      </c>
+      <c r="C590" s="1">
+        <v>590</v>
+      </c>
+      <c r="E590" s="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A591" s="1">
+        <v>590</v>
+      </c>
+      <c r="C591" s="1">
+        <v>591</v>
+      </c>
+      <c r="E591" s="1">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A592" s="1">
+        <v>591</v>
+      </c>
+      <c r="C592" s="1">
+        <v>592</v>
+      </c>
+      <c r="E592" s="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A593" s="1">
+        <v>592</v>
+      </c>
+      <c r="C593" s="1">
+        <v>593</v>
+      </c>
+      <c r="E593" s="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A594" s="1">
+        <v>593</v>
+      </c>
+      <c r="C594" s="1">
+        <v>594</v>
+      </c>
+      <c r="E594" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A595" s="1">
+        <v>594</v>
+      </c>
+      <c r="C595" s="1">
+        <v>595</v>
+      </c>
+      <c r="E595" s="1">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A596" s="1">
+        <v>595</v>
+      </c>
+      <c r="C596" s="1">
+        <v>596</v>
+      </c>
+      <c r="E596" s="1">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A597" s="1">
+        <v>596</v>
+      </c>
+      <c r="C597" s="1">
+        <v>597</v>
+      </c>
+      <c r="E597" s="1">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A598" s="1">
+        <v>597</v>
+      </c>
+      <c r="C598" s="1">
+        <v>598</v>
+      </c>
+      <c r="E598" s="1">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A599" s="1">
+        <v>598</v>
+      </c>
+      <c r="C599" s="1">
+        <v>599</v>
+      </c>
+      <c r="E599" s="1">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A600" s="1">
+        <v>599</v>
+      </c>
+      <c r="C600" s="1">
+        <v>600</v>
+      </c>
+      <c r="E600" s="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A601" s="1">
+        <v>600</v>
+      </c>
+      <c r="C601" s="1">
+        <v>601</v>
+      </c>
+      <c r="E601" s="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A602" s="1">
+        <v>601</v>
+      </c>
+      <c r="C602" s="1">
+        <v>602</v>
+      </c>
+      <c r="E602" s="1">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A603" s="1">
+        <v>602</v>
+      </c>
+      <c r="C603" s="1">
+        <v>603</v>
+      </c>
+      <c r="E603" s="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A604" s="1">
+        <v>603</v>
+      </c>
+      <c r="C604" s="1">
+        <v>604</v>
+      </c>
+      <c r="E604" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A605" s="1">
+        <v>604</v>
+      </c>
+      <c r="C605" s="1">
+        <v>605</v>
+      </c>
+      <c r="E605" s="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A606" s="1">
+        <v>605</v>
+      </c>
+      <c r="C606" s="1">
+        <v>606</v>
+      </c>
+      <c r="E606" s="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A607" s="1">
+        <v>606</v>
+      </c>
+      <c r="C607" s="1">
+        <v>607</v>
+      </c>
+      <c r="E607" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A608" s="1">
+        <v>607</v>
+      </c>
+      <c r="C608" s="1">
+        <v>608</v>
+      </c>
+      <c r="E608" s="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A609" s="1">
+        <v>608</v>
+      </c>
+      <c r="C609" s="1">
+        <v>609</v>
+      </c>
+      <c r="E609" s="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A610" s="1">
+        <v>609</v>
+      </c>
+      <c r="C610" s="1">
+        <v>610</v>
+      </c>
+      <c r="E610" s="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A611" s="1">
+        <v>610</v>
+      </c>
+      <c r="C611" s="1">
+        <v>611</v>
+      </c>
+      <c r="E611" s="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A612" s="1">
+        <v>611</v>
+      </c>
+      <c r="C612" s="1">
+        <v>612</v>
+      </c>
+      <c r="E612" s="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A613" s="1">
+        <v>612</v>
+      </c>
+      <c r="C613" s="1">
+        <v>613</v>
+      </c>
+      <c r="E613" s="1">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A614" s="1">
+        <v>613</v>
+      </c>
+      <c r="C614" s="1">
+        <v>614</v>
+      </c>
+      <c r="E614" s="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A615" s="1">
+        <v>614</v>
+      </c>
+      <c r="C615" s="1">
+        <v>615</v>
+      </c>
+      <c r="E615" s="1">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A616" s="1">
+        <v>615</v>
+      </c>
+      <c r="C616" s="1">
+        <v>616</v>
+      </c>
+      <c r="E616" s="1">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A617" s="1">
+        <v>616</v>
+      </c>
+      <c r="C617" s="1">
+        <v>617</v>
+      </c>
+      <c r="E617" s="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A618" s="1">
+        <v>617</v>
+      </c>
+      <c r="C618" s="1">
+        <v>618</v>
+      </c>
+      <c r="E618" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A619" s="1">
+        <v>618</v>
+      </c>
+      <c r="C619" s="1">
+        <v>619</v>
+      </c>
+      <c r="E619" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A620" s="1">
+        <v>619</v>
+      </c>
+      <c r="C620" s="1">
+        <v>620</v>
+      </c>
+      <c r="E620" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A621" s="1">
+        <v>620</v>
+      </c>
+      <c r="C621" s="1">
+        <v>621</v>
+      </c>
+      <c r="E621" s="1">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A622" s="1">
+        <v>621</v>
+      </c>
+      <c r="C622" s="1">
+        <v>622</v>
+      </c>
+      <c r="E622" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A623" s="1">
+        <v>622</v>
+      </c>
+      <c r="C623" s="1">
+        <v>623</v>
+      </c>
+      <c r="E623" s="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A624" s="1">
+        <v>623</v>
+      </c>
+      <c r="C624" s="1">
+        <v>624</v>
+      </c>
+      <c r="E624" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A625" s="1">
+        <v>624</v>
+      </c>
+      <c r="C625" s="1">
+        <v>625</v>
+      </c>
+      <c r="E625" s="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A626" s="1">
+        <v>625</v>
+      </c>
+      <c r="C626" s="1">
+        <v>626</v>
+      </c>
+      <c r="E626" s="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A627" s="1">
+        <v>626</v>
+      </c>
+      <c r="C627" s="1">
+        <v>627</v>
+      </c>
+      <c r="E627" s="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A628" s="1">
+        <v>627</v>
+      </c>
+      <c r="C628" s="1">
+        <v>628</v>
+      </c>
+      <c r="E628" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A629" s="1">
+        <v>628</v>
+      </c>
+      <c r="C629" s="1">
+        <v>629</v>
+      </c>
+      <c r="E629" s="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A630" s="1">
+        <v>629</v>
+      </c>
+      <c r="C630" s="1">
+        <v>630</v>
+      </c>
+      <c r="E630" s="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A631" s="1">
+        <v>630</v>
+      </c>
+      <c r="C631" s="1">
+        <v>631</v>
+      </c>
+      <c r="E631" s="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A632" s="1">
+        <v>631</v>
+      </c>
+      <c r="C632" s="1">
+        <v>632</v>
+      </c>
+      <c r="E632" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A633" s="1">
+        <v>632</v>
+      </c>
+      <c r="C633" s="1">
+        <v>633</v>
+      </c>
+      <c r="E633" s="1">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A634" s="1">
+        <v>633</v>
+      </c>
+      <c r="C634" s="1">
+        <v>634</v>
+      </c>
+      <c r="E634" s="1">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A635" s="1">
+        <v>634</v>
+      </c>
+      <c r="C635" s="1">
+        <v>635</v>
+      </c>
+      <c r="E635" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A636" s="1">
+        <v>635</v>
+      </c>
+      <c r="C636" s="1">
+        <v>636</v>
+      </c>
+      <c r="E636" s="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A637" s="1">
+        <v>636</v>
+      </c>
+      <c r="C637" s="1">
+        <v>637</v>
+      </c>
+      <c r="E637" s="1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A638" s="1">
+        <v>637</v>
+      </c>
+      <c r="C638" s="1">
+        <v>638</v>
+      </c>
+      <c r="E638" s="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A639" s="1">
+        <v>638</v>
+      </c>
+      <c r="C639" s="1">
+        <v>639</v>
+      </c>
+      <c r="E639" s="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A640" s="1">
+        <v>639</v>
+      </c>
+      <c r="C640" s="1">
+        <v>640</v>
+      </c>
+      <c r="E640" s="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A641" s="1">
+        <v>640</v>
+      </c>
+      <c r="C641" s="1">
+        <v>641</v>
+      </c>
+      <c r="E641" s="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A642" s="1">
+        <v>641</v>
+      </c>
+      <c r="C642" s="1">
+        <v>642</v>
+      </c>
+      <c r="E642" s="1">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A643" s="1">
+        <v>642</v>
+      </c>
+      <c r="C643" s="1">
+        <v>643</v>
+      </c>
+      <c r="E643" s="1">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A644" s="1">
+        <v>643</v>
+      </c>
+      <c r="C644" s="1">
+        <v>644</v>
+      </c>
+      <c r="E644" s="1">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A645" s="1">
+        <v>644</v>
+      </c>
+      <c r="C645" s="1">
+        <v>645</v>
+      </c>
+      <c r="E645" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A646" s="1">
+        <v>645</v>
+      </c>
+      <c r="C646" s="1">
+        <v>646</v>
+      </c>
+      <c r="E646" s="1">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A647" s="1">
+        <v>646</v>
+      </c>
+      <c r="C647" s="1">
+        <v>647</v>
+      </c>
+      <c r="E647" s="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A648" s="1">
+        <v>647</v>
+      </c>
+      <c r="C648" s="1">
+        <v>648</v>
+      </c>
+      <c r="E648" s="1">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A649" s="1">
+        <v>648</v>
+      </c>
+      <c r="C649" s="1">
+        <v>649</v>
+      </c>
+      <c r="E649" s="1">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A650" s="1">
+        <v>649</v>
+      </c>
+      <c r="C650" s="1">
+        <v>650</v>
+      </c>
+      <c r="E650" s="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A651" s="1">
+        <v>650</v>
+      </c>
+      <c r="C651" s="1">
+        <v>651</v>
+      </c>
+      <c r="E651" s="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A652" s="1">
+        <v>651</v>
+      </c>
+      <c r="C652" s="1">
+        <v>652</v>
+      </c>
+      <c r="E652" s="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A653" s="1">
+        <v>652</v>
+      </c>
+      <c r="C653" s="1">
+        <v>653</v>
+      </c>
+      <c r="E653" s="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A654" s="1">
+        <v>653</v>
+      </c>
+      <c r="C654" s="1">
+        <v>654</v>
+      </c>
+      <c r="E654" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A655" s="1">
+        <v>654</v>
+      </c>
+      <c r="C655" s="1">
+        <v>655</v>
+      </c>
+      <c r="E655" s="1">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A656" s="1">
+        <v>655</v>
+      </c>
+      <c r="C656" s="1">
+        <v>656</v>
+      </c>
+      <c r="E656" s="1">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A657" s="1">
+        <v>656</v>
+      </c>
+      <c r="C657" s="1">
+        <v>657</v>
+      </c>
+      <c r="E657" s="1">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A658" s="1">
+        <v>657</v>
+      </c>
+      <c r="C658" s="1">
+        <v>658</v>
+      </c>
+      <c r="E658" s="1">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A659" s="1">
+        <v>658</v>
+      </c>
+      <c r="C659" s="1">
+        <v>659</v>
+      </c>
+      <c r="E659" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A660" s="1">
+        <v>659</v>
+      </c>
+      <c r="C660" s="1">
+        <v>660</v>
+      </c>
+      <c r="E660" s="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A661" s="1">
+        <v>660</v>
+      </c>
+      <c r="C661" s="1">
+        <v>661</v>
+      </c>
+      <c r="E661" s="1">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A662" s="1">
+        <v>661</v>
+      </c>
+      <c r="C662" s="1">
+        <v>662</v>
+      </c>
+      <c r="E662" s="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A663" s="1">
+        <v>662</v>
+      </c>
+      <c r="C663" s="1">
+        <v>663</v>
+      </c>
+      <c r="E663" s="1">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A664" s="1">
+        <v>663</v>
+      </c>
+      <c r="C664" s="1">
+        <v>664</v>
+      </c>
+      <c r="E664" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A665" s="1">
+        <v>664</v>
+      </c>
+      <c r="C665" s="1">
+        <v>665</v>
+      </c>
+      <c r="E665" s="1">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A666" s="1">
+        <v>665</v>
+      </c>
+      <c r="C666" s="1">
+        <v>666</v>
+      </c>
+      <c r="E666" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A667" s="1">
+        <v>666</v>
+      </c>
+      <c r="C667" s="1">
+        <v>667</v>
+      </c>
+      <c r="E667" s="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A668" s="1">
+        <v>667</v>
+      </c>
+      <c r="C668" s="1">
+        <v>668</v>
+      </c>
+      <c r="E668" s="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A669" s="1">
+        <v>668</v>
+      </c>
+      <c r="C669" s="1">
+        <v>669</v>
+      </c>
+      <c r="E669" s="1">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A670" s="1">
+        <v>669</v>
+      </c>
+      <c r="C670" s="1">
+        <v>670</v>
+      </c>
+      <c r="E670" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A671" s="1">
+        <v>670</v>
+      </c>
+      <c r="C671" s="1">
+        <v>671</v>
+      </c>
+      <c r="E671" s="1">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A672" s="1">
+        <v>671</v>
+      </c>
+      <c r="C672" s="1">
+        <v>672</v>
+      </c>
+      <c r="E672" s="1">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A673" s="1">
+        <v>672</v>
+      </c>
+      <c r="C673" s="1">
+        <v>673</v>
+      </c>
+      <c r="E673" s="1">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A674" s="1">
+        <v>673</v>
+      </c>
+      <c r="C674" s="1">
+        <v>674</v>
+      </c>
+      <c r="E674" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A675" s="1">
+        <v>674</v>
+      </c>
+      <c r="C675" s="1">
+        <v>675</v>
+      </c>
+      <c r="E675" s="1">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A676" s="1">
+        <v>675</v>
+      </c>
+      <c r="C676" s="1">
+        <v>676</v>
+      </c>
+      <c r="E676" s="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A677" s="1">
+        <v>676</v>
+      </c>
+      <c r="C677" s="1">
+        <v>677</v>
+      </c>
+      <c r="E677" s="1">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A678" s="1">
+        <v>677</v>
+      </c>
+      <c r="C678" s="1">
+        <v>678</v>
+      </c>
+      <c r="E678" s="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A679" s="1">
+        <v>678</v>
+      </c>
+      <c r="C679" s="1">
+        <v>679</v>
+      </c>
+      <c r="E679" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A680" s="1">
+        <v>679</v>
+      </c>
+      <c r="C680" s="1">
+        <v>680</v>
+      </c>
+      <c r="E680" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A681" s="1">
+        <v>680</v>
+      </c>
+      <c r="C681" s="1">
+        <v>681</v>
+      </c>
+      <c r="E681" s="1">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A682" s="1">
+        <v>681</v>
+      </c>
+      <c r="C682" s="1">
+        <v>682</v>
+      </c>
+      <c r="E682" s="1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A683" s="1">
+        <v>682</v>
+      </c>
+      <c r="C683" s="1">
+        <v>683</v>
+      </c>
+      <c r="E683" s="1">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A684" s="1">
+        <v>683</v>
+      </c>
+      <c r="C684" s="1">
+        <v>684</v>
+      </c>
+      <c r="E684" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A685" s="1">
+        <v>684</v>
+      </c>
+      <c r="C685" s="1">
+        <v>685</v>
+      </c>
+      <c r="E685" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A686" s="1">
+        <v>685</v>
+      </c>
+      <c r="C686" s="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A687" s="1">
+        <v>686</v>
+      </c>
+      <c r="C687" s="1">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A688" s="1">
+        <v>687</v>
+      </c>
+      <c r="C688" s="1">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A689" s="1">
+        <v>688</v>
+      </c>
+      <c r="C689" s="1">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A690" s="1">
+        <v>689</v>
+      </c>
+      <c r="C690" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A691" s="1">
+        <v>690</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A692" s="1">
+        <v>691</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A693" s="1">
+        <v>692</v>
+      </c>
+      <c r="C693" s="1">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A694" s="1">
+        <v>693</v>
+      </c>
+      <c r="C694" s="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A695" s="1">
+        <v>694</v>
+      </c>
+      <c r="C695" s="1">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A696" s="1">
+        <v>695</v>
+      </c>
+      <c r="C696" s="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A697" s="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A698" s="1">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A699" s="1">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A700" s="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A701" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A702" s="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A703" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A704" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A705" s="1">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A706" s="1">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A707" s="1">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A708" s="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A709" s="1">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A710" s="1">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A711" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712" s="1">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A713" s="1">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A714" s="1">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A715" s="1">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A716" s="1">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A717" s="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A718" s="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A719" s="1">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A720" s="1">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A721" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A722" s="1">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A723" s="1">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A724" s="1">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A725" s="1">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A726" s="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A727" s="1">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A728" s="1">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A729" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A730" s="1">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A731" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A732" s="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A733" s="1">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A734" s="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A735" s="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A736" s="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A737" s="1">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A738" s="1">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A739" s="1">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A740" s="1">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A741" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A742" s="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A743" s="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A744" s="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A745" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A746" s="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A747" s="1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A748" s="1">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A749" s="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A750" s="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A751" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A752" s="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A753" s="1">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A754" s="1">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A755" s="1">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A756" s="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A757" s="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A758" s="1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A759" s="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A760" s="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A761" s="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A762" s="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A763" s="1">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A764" s="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A765" s="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A766" s="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A767" s="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A768" s="1">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A769" s="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A770" s="1">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A771" s="1">
+        <v>770</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
